--- a/AppliedAlgebra2/Projects/02-FoodTruck-DailyLottery.xlsx
+++ b/AppliedAlgebra2/Projects/02-FoodTruck-DailyLottery.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="10560"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="10560" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DailySales" sheetId="1" r:id="rId1"/>
     <sheet name="DailyIncomeRolls" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DailyIncomeRollsMo2" sheetId="4" r:id="rId3"/>
+    <sheet name="ChanceHappenings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>You sell out 1 hour after closing.</t>
   </si>
@@ -64,6 +65,72 @@
   </si>
   <si>
     <t>You sell 91% of your inventory.</t>
+  </si>
+  <si>
+    <t>Your waste for the day was 10% (CoGS).  But you sold 85% of your inventory.</t>
+  </si>
+  <si>
+    <t>You sell 75% of your inventory.</t>
+  </si>
+  <si>
+    <t>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 50%.</t>
+  </si>
+  <si>
+    <t>Illness - Lose 3 consecutive days of income for the week or hire a second person at the same rate for the whole week.</t>
+  </si>
+  <si>
+    <t>Chance Happenings for each week</t>
+  </si>
+  <si>
+    <t>Bonus!  You are invited to a special event.  Sell 167% of inventory for two consecutive days.</t>
+  </si>
+  <si>
+    <t>If you did not sell out all six days of the week, increase your lowest two days of sales by 3%, up to a maximum of 100%.</t>
+  </si>
+  <si>
+    <t>You had a problem with your truck and need to pay $1135.</t>
+  </si>
+  <si>
+    <t>Employee turnover (somebody quit and you need to hire somebody else).  Lose 8% of income for three consecutive days.</t>
+  </si>
+  <si>
+    <t>You sell 51% of your inventory.</t>
+  </si>
+  <si>
+    <t>Your waste for the day was 6% (CoGS).  But you sold 85% of your inventory.</t>
+  </si>
+  <si>
+    <t>You sell 80% of your inventory.</t>
+  </si>
+  <si>
+    <t>You sell 77% of your inventory.</t>
+  </si>
+  <si>
+    <t>You sell 96% of your inventory.</t>
+  </si>
+  <si>
+    <t>You sell 82% of your inventory.</t>
+  </si>
+  <si>
+    <t>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 60%.</t>
+  </si>
+  <si>
+    <t>Month 2</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t>You had a problem with your truck and need to pay $1043.</t>
+  </si>
+  <si>
+    <t>If you did not sell out all six days of the week, increase your lowest two days of sales by 6%, up to a maximum of 100%.</t>
+  </si>
+  <si>
+    <t>Employee turnover (somebody quit and you need to hire somebody else).  Lose 3% of income for three consecutive days.</t>
+  </si>
+  <si>
+    <t>Bonus!  You are invited to a special event.  Sell 160% of inventory for two consecutive days.</t>
   </si>
 </sst>
 </file>
@@ -400,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,101 +479,101 @@
     <row r="1" spans="1:2">
       <c r="A1">
         <f t="shared" ref="A1:A28" ca="1" si="0">IF(RANDBETWEEN(1,3)=1,RANDBETWEEN(1,12),RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">VLOOKUP(A1,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 90% of your inventory.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(A2,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out within 10 minutes of closing.</v>
+        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP(A3,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>You sell 75% of your inventory.</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">VLOOKUP(A4,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell out within 10 minutes of closing.</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">VLOOKUP(A5,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 50%.</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">VLOOKUP(A6,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell out within 10 minutes of closing.</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">VLOOKUP(A7,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>Your waste for the day was 12% (CoGS).  But you sold 92% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">VLOOKUP(A8,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">VLOOKUP(A9,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 90% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">VLOOKUP(A10,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out within 10 minutes of closing.</v>
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -516,47 +583,47 @@
       </c>
       <c r="B11" t="str">
         <f ca="1">VLOOKUP(A11,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 96% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="str">
         <f ca="1">VLOOKUP(A12,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>Your waste for the day was 12% (CoGS).  But you sold 92% of your inventory.</v>
+        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">VLOOKUP(A13,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="str">
         <f ca="1">VLOOKUP(A14,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <f ca="1">VLOOKUP(A15,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -572,21 +639,21 @@
     <row r="17" spans="1:2">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" t="str">
         <f ca="1">VLOOKUP(A17,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>Your waste for the day was 12% (CoGS).  But you sold 92% of your inventory.</v>
+        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" t="str">
         <f ca="1">VLOOKUP(A18,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -602,21 +669,21 @@
     <row r="20" spans="1:2">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">VLOOKUP(A20,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="str">
         <f ca="1">VLOOKUP(A21,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -626,67 +693,67 @@
       </c>
       <c r="B22" t="str">
         <f ca="1">VLOOKUP(A22,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B23" t="str">
         <f ca="1">VLOOKUP(A23,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>Your waste for the day was 12% (CoGS).  But you sold 92% of your inventory.</v>
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="str">
         <f ca="1">VLOOKUP(A24,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell out 1 hour after closing.</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="str">
         <f ca="1">VLOOKUP(A25,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26" t="str">
         <f ca="1">VLOOKUP(A26,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out 1 hour after closing.</v>
+        <v>You sell 89% of your inventory.</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="str">
         <f ca="1">VLOOKUP(A27,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="str">
         <f ca="1">VLOOKUP(A28,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 56% of your inventory.</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -920,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,7 +1004,7 @@
       </c>
       <c r="B1" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(50,59) &amp; "% of your inventory."</f>
-        <v>You sell 59% of your inventory.</v>
+        <v>You sell 56% of your inventory.</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
@@ -946,7 +1013,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">"Your waste for the day was " &amp; RANDBETWEEN(6,12) &amp; "% (CoGS).  But you sold " &amp; RANDBETWEEN(85,92) &amp; "% of your inventory."</f>
-        <v>Your waste for the day was 12% (CoGS).  But you sold 92% of your inventory.</v>
+        <v>Your waste for the day was 8% (CoGS).  But you sold 89% of your inventory.</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -955,7 +1022,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(75,84) &amp; "% of your inventory."</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 75% of your inventory.</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -964,7 +1031,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(75,90) &amp; "% of your inventory."</f>
-        <v>You sell 84% of your inventory.</v>
+        <v>You sell 88% of your inventory.</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1013,7 +1080,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(91,96) &amp; "% of your inventory."</f>
-        <v>You sell 96% of your inventory.</v>
+        <v>You sell 92% of your inventory.</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1022,7 +1089,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(82,92) &amp; "% of your inventory."</f>
-        <v>You sell 90% of your inventory.</v>
+        <v>You sell 89% of your inventory.</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
@@ -1031,7 +1098,12 @@
       </c>
       <c r="B12" s="1" t="str">
         <f ca="1">"Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is " &amp; 10 * RANDBETWEEN(1,6) &amp; "%."</f>
-        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 10%.</v>
+        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 50%.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1092,6 +1164,71 @@
     <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1102,12 +1239,535 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1">VLOOKUP(B33,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34">
+        <f t="shared" ref="B34:B36" ca="1" si="0">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1">VLOOKUP(B34,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1">VLOOKUP(B35,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 5%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1">VLOOKUP(B36,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">"If you did not sell out all six days of the week, increase your lowest two days of sales by " &amp; RANDBETWEEN(3,6) &amp; "%, up to a maximum of 100%."</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">"You had a problem with your truck and need to pay $" &amp; RANDBETWEEN(800,1200) &amp; "."</f>
+        <v>You had a problem with your truck and need to pay $1082.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">"If you did not sell out all six days of the week, increase your lowest two days of sales by " &amp; RANDBETWEEN(3,6) &amp; "%, up to a maximum of 100%."</f>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 5%, up to a maximum of 100%.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">"Employee turnover (somebody quit and you need to hire somebody else).  Lose " &amp; RANDBETWEEN(3,8) &amp; "% of income for three consecutive days."</f>
+        <v>Employee turnover (somebody quit and you need to hire somebody else).  Lose 4% of income for three consecutive days.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">"Bonus!  You are invited to a special event.  Sell " &amp; RANDBETWEEN(150,200) &amp; "% of inventory for two consecutive days."</f>
+        <v>Bonus!  You are invited to a special event.  Sell 166% of inventory for two consecutive days.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AppliedAlgebra2/Projects/02-FoodTruck-DailyLottery.xlsx
+++ b/AppliedAlgebra2/Projects/02-FoodTruck-DailyLottery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="10560" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="DailySales" sheetId="1" r:id="rId1"/>
@@ -166,11 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,6 +182,605 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DailySales!$E$33:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95122944"/>
+        <c:axId val="95124480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95122944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95124480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95124480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95122944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DailySales!$E$33:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="170850176"/>
+        <c:axId val="170852352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170850176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170852352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170852352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170850176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DailySales!$E$33:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="173257856"/>
+        <c:axId val="173260160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173257856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173260160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173260160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173257856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DailySales!$E$33:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="129526784"/>
+        <c:axId val="160994048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="129526784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160994048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160994048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129526784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,27 +1086,27 @@
       </c>
       <c r="B1" t="str">
         <f ca="1">VLOOKUP(A1,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
+        <v>You sell 80% of your inventory.</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(A2,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>You sell 80% of your inventory.</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP(A3,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 75% of your inventory.</v>
+        <v>You sell out within 10 minutes of closing.</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,469 +1122,756 @@
     <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">VLOOKUP(A5,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 50%.</v>
+        <v>Your waste for the day was 7% (CoGS).  But you sold 91% of your inventory.</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">VLOOKUP(A6,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out within 10 minutes of closing.</v>
+        <v>You sell 93% of your inventory.</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">VLOOKUP(A7,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 92% of your inventory.</v>
+        <v>You sell 79% of your inventory.</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">VLOOKUP(A8,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">VLOOKUP(A9,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 92% of your inventory.</v>
+        <v>You sell out within 10 minutes of closing.</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">VLOOKUP(A10,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
+        <v>You sell out 1 hour after closing.</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">VLOOKUP(A11,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 92% of your inventory.</v>
+        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="str">
         <f ca="1">VLOOKUP(A12,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+        <v>You sell out 1 hour after closing.</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">VLOOKUP(A13,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
+        <v>You sell 79% of your inventory.</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="str">
         <f ca="1">VLOOKUP(A14,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
+        <v>Your waste for the day was 7% (CoGS).  But you sold 91% of your inventory.</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" t="str">
         <f ca="1">VLOOKUP(A15,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 92% of your inventory.</v>
+        <v>You sell 80% of your inventory.</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
         <f ca="1">VLOOKUP(A16,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out 1 hour after closing.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>You sell 87% of your inventory.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="str">
         <f ca="1">VLOOKUP(A17,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>You sell 93% of your inventory.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" t="str">
         <f ca="1">VLOOKUP(A18,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>You sell out within 10 minutes of closing.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="str">
         <f ca="1">VLOOKUP(A19,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">VLOOKUP(A20,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 92% of your inventory.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="str">
         <f ca="1">VLOOKUP(A21,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 1 hour before closing.  You must decide whether to pay your employees for that hour or not.</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>You sell out within 10 minutes of closing.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="str">
         <f ca="1">VLOOKUP(A22,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>You sell 79% of your inventory.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="str">
         <f ca="1">VLOOKUP(A23,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>You sell out within 10 minutes of closing.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="str">
         <f ca="1">VLOOKUP(A24,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out 1 hour after closing.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>People continue to line up at closing.  You sell out 1/2 hour after closing.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" t="str">
         <f ca="1">VLOOKUP(A25,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>You sell 80% of your inventory.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B26" t="str">
         <f ca="1">VLOOKUP(A26,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 89% of your inventory.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>You sell 80% of your inventory.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B27" t="str">
         <f ca="1">VLOOKUP(A27,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 88% of your inventory.</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>You sell out your inventory 2 hours before closing.  You must decide whether to pay your employees for that hour or not.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="str">
         <f ca="1">VLOOKUP(A28,DailyIncomeRolls!$A$1:$B$12,2,FALSE)</f>
-        <v>You sell 56% of your inventory.</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>You sell out 1 hour after closing.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="E33">
+        <f>D33*$E$32</f>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E34">
+        <f>D34*$E$32</f>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60">
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E60" si="1">D35*$E$32</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60">
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60">
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
       <c r="A40">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>2025.0000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60">
       <c r="A44">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>10</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45">
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60">
       <c r="A49">
         <v>9</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>11</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60">
       <c r="A53">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60">
       <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>2025.0000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>2025.0000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>2025.0000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45">
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -989,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1903,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">"Your waste for the day was " &amp; RANDBETWEEN(6,12) &amp; "% (CoGS).  But you sold " &amp; RANDBETWEEN(85,92) &amp; "% of your inventory."</f>
-        <v>Your waste for the day was 8% (CoGS).  But you sold 89% of your inventory.</v>
+        <v>Your waste for the day was 7% (CoGS).  But you sold 91% of your inventory.</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1022,7 +1912,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(75,84) &amp; "% of your inventory."</f>
-        <v>You sell 75% of your inventory.</v>
+        <v>You sell 79% of your inventory.</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1031,7 +1921,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(75,90) &amp; "% of your inventory."</f>
-        <v>You sell 88% of your inventory.</v>
+        <v>You sell 80% of your inventory.</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1080,7 +1970,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(91,96) &amp; "% of your inventory."</f>
-        <v>You sell 92% of your inventory.</v>
+        <v>You sell 93% of your inventory.</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1089,7 +1979,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f ca="1">"You sell " &amp; RANDBETWEEN(82,92) &amp; "% of your inventory."</f>
-        <v>You sell 89% of your inventory.</v>
+        <v>You sell 87% of your inventory.</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
@@ -1098,7 +1988,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f ca="1">"Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is " &amp; 10 * RANDBETWEEN(1,6) &amp; "%."</f>
-        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 50%.</v>
+        <v>Power outage.  You take inventory to a homeless shelter.  The amount of your inventory you take to the shelter is 10%.</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1566,17 +2456,17 @@
     <row r="33" spans="1:3">
       <c r="B33">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" t="str">
         <f ca="1">VLOOKUP(B33,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
-        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+        <v>Employee turnover (somebody quit and you need to hire somebody else).  Lose 4% of income for three consecutive days.</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34">
         <f t="shared" ref="B34:B36" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
         <f ca="1">VLOOKUP(B34,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
@@ -1586,21 +2476,21 @@
     <row r="35" spans="1:3">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" t="str">
         <f ca="1">VLOOKUP(B35,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
-        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 5%, up to a maximum of 100%.</v>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 3%, up to a maximum of 100%.</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" t="str">
         <f ca="1">VLOOKUP(B36,ChanceHappenings!$A$1:$B$6,2,FALSE)</f>
-        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+        <v>Employee turnover (somebody quit and you need to hire somebody else).  Lose 4% of income for three consecutive days.</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1657,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1680,7 +2570,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"If you did not sell out all six days of the week, increase your lowest two days of sales by " &amp; RANDBETWEEN(3,6) &amp; "%, up to a maximum of 100%."</f>
-        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 3%, up to a maximum of 100%.</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1689,7 +2579,7 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"You had a problem with your truck and need to pay $" &amp; RANDBETWEEN(800,1200) &amp; "."</f>
-        <v>You had a problem with your truck and need to pay $1082.</v>
+        <v>You had a problem with your truck and need to pay $884.</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1698,7 +2588,7 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"If you did not sell out all six days of the week, increase your lowest two days of sales by " &amp; RANDBETWEEN(3,6) &amp; "%, up to a maximum of 100%."</f>
-        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 5%, up to a maximum of 100%.</v>
+        <v>If you did not sell out all six days of the week, increase your lowest two days of sales by 4%, up to a maximum of 100%.</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1716,7 +2606,7 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"Bonus!  You are invited to a special event.  Sell " &amp; RANDBETWEEN(150,200) &amp; "% of inventory for two consecutive days."</f>
-        <v>Bonus!  You are invited to a special event.  Sell 166% of inventory for two consecutive days.</v>
+        <v>Bonus!  You are invited to a special event.  Sell 161% of inventory for two consecutive days.</v>
       </c>
     </row>
     <row r="11" spans="1:2">
